--- a/natmiOut/YoungD4/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ephb2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H2">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I2">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J2">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>8.37421118656501</v>
+        <v>0.2298373333333333</v>
       </c>
       <c r="N2">
-        <v>8.37421118656501</v>
+        <v>0.689512</v>
       </c>
       <c r="O2">
-        <v>0.9599046450919442</v>
+        <v>0.02491532190107932</v>
       </c>
       <c r="P2">
-        <v>0.9599046450919442</v>
+        <v>0.02491532190107933</v>
       </c>
       <c r="Q2">
-        <v>58.8901512476773</v>
+        <v>1.684986139568889</v>
       </c>
       <c r="R2">
-        <v>58.8901512476773</v>
+        <v>15.16487525612</v>
       </c>
       <c r="S2">
-        <v>0.3112511308033833</v>
+        <v>0.00797867884928441</v>
       </c>
       <c r="T2">
-        <v>0.3112511308033833</v>
+        <v>0.007978678849284413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,433 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H3">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I3">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J3">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.34979200415076</v>
+        <v>8.445752666666667</v>
       </c>
       <c r="N3">
-        <v>0.34979200415076</v>
+        <v>25.337258</v>
       </c>
       <c r="O3">
-        <v>0.0400953549080558</v>
+        <v>0.9155546809347732</v>
       </c>
       <c r="P3">
-        <v>0.0400953549080558</v>
+        <v>0.9155546809347734</v>
       </c>
       <c r="Q3">
-        <v>2.459850076711044</v>
+        <v>61.91760048364777</v>
       </c>
       <c r="R3">
-        <v>2.459850076711044</v>
+        <v>557.25840435283</v>
       </c>
       <c r="S3">
-        <v>0.01300100444237353</v>
+        <v>0.2931897407201937</v>
       </c>
       <c r="T3">
-        <v>0.01300100444237353</v>
+        <v>0.2931897407201938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.24559775085746</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H4">
-        <v>7.24559775085746</v>
+        <v>21.993635</v>
       </c>
       <c r="I4">
-        <v>0.3340860208783424</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J4">
-        <v>0.3340860208783424</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>8.37421118656501</v>
+        <v>0.04220933333333333</v>
       </c>
       <c r="N4">
-        <v>8.37421118656501</v>
+        <v>0.126628</v>
       </c>
       <c r="O4">
-        <v>0.9599046450919442</v>
+        <v>0.004575667111942754</v>
       </c>
       <c r="P4">
-        <v>0.9599046450919442</v>
+        <v>0.004575667111942755</v>
       </c>
       <c r="Q4">
-        <v>60.67616573858081</v>
+        <v>0.3094455569755555</v>
       </c>
       <c r="R4">
-        <v>60.67616573858081</v>
+        <v>2.785010012779999</v>
       </c>
       <c r="S4">
-        <v>0.3206907233014051</v>
+        <v>0.001465274201648682</v>
       </c>
       <c r="T4">
-        <v>0.3206907233014051</v>
+        <v>0.001465274201648682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.24559775085746</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H5">
-        <v>7.24559775085746</v>
+        <v>21.993635</v>
       </c>
       <c r="I5">
-        <v>0.3340860208783424</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J5">
-        <v>0.3340860208783424</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.34979200415076</v>
+        <v>0.006559666666666666</v>
       </c>
       <c r="N5">
-        <v>0.34979200415076</v>
+        <v>0.019679</v>
       </c>
       <c r="O5">
-        <v>0.0400953549080558</v>
+        <v>0.0007110951218997493</v>
       </c>
       <c r="P5">
-        <v>0.0400953549080558</v>
+        <v>0.0007110951218997495</v>
       </c>
       <c r="Q5">
-        <v>2.53445215854267</v>
+        <v>0.0480903047961111</v>
       </c>
       <c r="R5">
-        <v>2.53445215854267</v>
+        <v>0.4328127431649999</v>
       </c>
       <c r="S5">
-        <v>0.01339529757693728</v>
+        <v>0.0002277152842518591</v>
       </c>
       <c r="T5">
-        <v>0.01339529757693728</v>
+        <v>0.0002277152842518592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.07146335244669</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H6">
-        <v>6.07146335244669</v>
+        <v>21.993635</v>
       </c>
       <c r="I6">
-        <v>0.2799480597839635</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J6">
-        <v>0.2799480597839635</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.37421118656501</v>
+        <v>0.5003796666666667</v>
       </c>
       <c r="N6">
-        <v>8.37421118656501</v>
+        <v>1.501139</v>
       </c>
       <c r="O6">
-        <v>0.9599046450919442</v>
+        <v>0.05424323493030479</v>
       </c>
       <c r="P6">
-        <v>0.9599046450919442</v>
+        <v>0.0542432349303048</v>
       </c>
       <c r="Q6">
-        <v>50.84371632487857</v>
+        <v>3.668389250029444</v>
       </c>
       <c r="R6">
-        <v>50.84371632487857</v>
+        <v>33.015503250265</v>
       </c>
       <c r="S6">
-        <v>0.2687234429711039</v>
+        <v>0.01737040978131773</v>
       </c>
       <c r="T6">
-        <v>0.2687234429711039</v>
+        <v>0.01737040978131773</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>6.07146335244669</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H7">
-        <v>6.07146335244669</v>
+        <v>0.488444</v>
       </c>
       <c r="I7">
-        <v>0.2799480597839635</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J7">
-        <v>0.2799480597839635</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.34979200415076</v>
+        <v>0.2298373333333333</v>
       </c>
       <c r="N7">
-        <v>0.34979200415076</v>
+        <v>0.689512</v>
       </c>
       <c r="O7">
-        <v>0.0400953549080558</v>
+        <v>0.02491532190107932</v>
       </c>
       <c r="P7">
-        <v>0.0400953549080558</v>
+        <v>0.02491532190107933</v>
       </c>
       <c r="Q7">
-        <v>2.12374933418022</v>
+        <v>0.03742088881422222</v>
       </c>
       <c r="R7">
-        <v>2.12374933418022</v>
+        <v>0.336787999328</v>
       </c>
       <c r="S7">
-        <v>0.01122461681285964</v>
+        <v>0.0001771938932268301</v>
       </c>
       <c r="T7">
-        <v>0.01122461681285964</v>
+        <v>0.0001771938932268302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.33843748995494</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H8">
-        <v>1.33843748995494</v>
+        <v>0.488444</v>
       </c>
       <c r="I8">
-        <v>0.0617137840919371</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J8">
-        <v>0.0617137840919371</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.37421118656501</v>
+        <v>8.445752666666667</v>
       </c>
       <c r="N8">
-        <v>8.37421118656501</v>
+        <v>25.337258</v>
       </c>
       <c r="O8">
-        <v>0.9599046450919442</v>
+        <v>0.9155546809347732</v>
       </c>
       <c r="P8">
-        <v>0.9599046450919442</v>
+        <v>0.9155546809347734</v>
       </c>
       <c r="Q8">
-        <v>11.20835820089865</v>
+        <v>1.375092405172444</v>
       </c>
       <c r="R8">
-        <v>11.20835820089865</v>
+        <v>12.375831646552</v>
       </c>
       <c r="S8">
-        <v>0.05923934801605175</v>
+        <v>0.006511282455871179</v>
       </c>
       <c r="T8">
-        <v>0.05923934801605175</v>
+        <v>0.00651128245587118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1628146666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.488444</v>
+      </c>
+      <c r="I9">
+        <v>0.007111844427711535</v>
+      </c>
+      <c r="J9">
+        <v>0.007111844427711535</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.04220933333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.126628</v>
+      </c>
+      <c r="O9">
+        <v>0.004575667111942754</v>
+      </c>
+      <c r="P9">
+        <v>0.004575667111942755</v>
+      </c>
+      <c r="Q9">
+        <v>0.006872298536888888</v>
+      </c>
+      <c r="R9">
+        <v>0.06185068683199999</v>
+      </c>
+      <c r="S9">
+        <v>3.2541432653133E-05</v>
+      </c>
+      <c r="T9">
+        <v>3.254143265313301E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1628146666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.488444</v>
+      </c>
+      <c r="I10">
+        <v>0.007111844427711535</v>
+      </c>
+      <c r="J10">
+        <v>0.007111844427711535</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.006559666666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.019679</v>
+      </c>
+      <c r="O10">
+        <v>0.0007110951218997493</v>
+      </c>
+      <c r="P10">
+        <v>0.0007110951218997495</v>
+      </c>
+      <c r="Q10">
+        <v>0.001068009941777778</v>
+      </c>
+      <c r="R10">
+        <v>0.009612089475999999</v>
+      </c>
+      <c r="S10">
+        <v>5.057197880255587E-06</v>
+      </c>
+      <c r="T10">
+        <v>5.057197880255588E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1628146666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.488444</v>
+      </c>
+      <c r="I11">
+        <v>0.007111844427711535</v>
+      </c>
+      <c r="J11">
+        <v>0.007111844427711535</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5003796666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.501139</v>
+      </c>
+      <c r="O11">
+        <v>0.05424323493030479</v>
+      </c>
+      <c r="P11">
+        <v>0.0542432349303048</v>
+      </c>
+      <c r="Q11">
+        <v>0.08146914863511111</v>
+      </c>
+      <c r="R11">
+        <v>0.733222337716</v>
+      </c>
+      <c r="S11">
+        <v>0.0003857694480801358</v>
+      </c>
+      <c r="T11">
+        <v>0.0003857694480801359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.402569</v>
+      </c>
+      <c r="H12">
+        <v>22.207707</v>
+      </c>
+      <c r="I12">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="J12">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2298373333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.689512</v>
+      </c>
+      <c r="O12">
+        <v>0.02491532190107932</v>
+      </c>
+      <c r="P12">
+        <v>0.02491532190107933</v>
+      </c>
+      <c r="Q12">
+        <v>1.701386718776</v>
+      </c>
+      <c r="R12">
+        <v>15.312480468984</v>
+      </c>
+      <c r="S12">
+        <v>0.008056338214761012</v>
+      </c>
+      <c r="T12">
+        <v>0.008056338214761016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.402569</v>
+      </c>
+      <c r="H13">
+        <v>22.207707</v>
+      </c>
+      <c r="I13">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="J13">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.445752666666667</v>
+      </c>
+      <c r="N13">
+        <v>25.337258</v>
+      </c>
+      <c r="O13">
+        <v>0.9155546809347732</v>
+      </c>
+      <c r="P13">
+        <v>0.9155546809347734</v>
+      </c>
+      <c r="Q13">
+        <v>62.52026687193401</v>
+      </c>
+      <c r="R13">
+        <v>562.682401847406</v>
+      </c>
+      <c r="S13">
+        <v>0.2960434624526611</v>
+      </c>
+      <c r="T13">
+        <v>0.2960434624526611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7.402569</v>
+      </c>
+      <c r="H14">
+        <v>22.207707</v>
+      </c>
+      <c r="I14">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="J14">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.04220933333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.126628</v>
+      </c>
+      <c r="O14">
+        <v>0.004575667111942754</v>
+      </c>
+      <c r="P14">
+        <v>0.004575667111942755</v>
+      </c>
+      <c r="Q14">
+        <v>0.3124575024439999</v>
+      </c>
+      <c r="R14">
+        <v>2.812117521996</v>
+      </c>
+      <c r="S14">
+        <v>0.001479536245139689</v>
+      </c>
+      <c r="T14">
+        <v>0.00147953624513969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.33843748995494</v>
-      </c>
-      <c r="H9">
-        <v>1.33843748995494</v>
-      </c>
-      <c r="I9">
-        <v>0.0617137840919371</v>
-      </c>
-      <c r="J9">
-        <v>0.0617137840919371</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.34979200415076</v>
-      </c>
-      <c r="N9">
-        <v>0.34979200415076</v>
-      </c>
-      <c r="O9">
-        <v>0.0400953549080558</v>
-      </c>
-      <c r="P9">
-        <v>0.0400953549080558</v>
-      </c>
-      <c r="Q9">
-        <v>0.4681747320418512</v>
-      </c>
-      <c r="R9">
-        <v>0.4681747320418512</v>
-      </c>
-      <c r="S9">
-        <v>0.002474436075885346</v>
-      </c>
-      <c r="T9">
-        <v>0.002474436075885346</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.402569</v>
+      </c>
+      <c r="H15">
+        <v>22.207707</v>
+      </c>
+      <c r="I15">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="J15">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.006559666666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.019679</v>
+      </c>
+      <c r="O15">
+        <v>0.0007110951218997493</v>
+      </c>
+      <c r="P15">
+        <v>0.0007110951218997495</v>
+      </c>
+      <c r="Q15">
+        <v>0.048558385117</v>
+      </c>
+      <c r="R15">
+        <v>0.437025466053</v>
+      </c>
+      <c r="S15">
+        <v>0.0002299317194309627</v>
+      </c>
+      <c r="T15">
+        <v>0.0002299317194309628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7.402569</v>
+      </c>
+      <c r="H16">
+        <v>22.207707</v>
+      </c>
+      <c r="I16">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="J16">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5003796666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.501139</v>
+      </c>
+      <c r="O16">
+        <v>0.05424323493030479</v>
+      </c>
+      <c r="P16">
+        <v>0.0542432349303048</v>
+      </c>
+      <c r="Q16">
+        <v>3.704095008697</v>
+      </c>
+      <c r="R16">
+        <v>33.336855078273</v>
+      </c>
+      <c r="S16">
+        <v>0.01753948225900076</v>
+      </c>
+      <c r="T16">
+        <v>0.01753948225900076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="H17">
+        <v>19.145591</v>
+      </c>
+      <c r="I17">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="J17">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2298373333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.689512</v>
+      </c>
+      <c r="O17">
+        <v>0.02491532190107932</v>
+      </c>
+      <c r="P17">
+        <v>0.02491532190107933</v>
+      </c>
+      <c r="Q17">
+        <v>1.466790526843556</v>
+      </c>
+      <c r="R17">
+        <v>13.201114741592</v>
+      </c>
+      <c r="S17">
+        <v>0.006945487727187887</v>
+      </c>
+      <c r="T17">
+        <v>0.006945487727187888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="H18">
+        <v>19.145591</v>
+      </c>
+      <c r="I18">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="J18">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.445752666666667</v>
+      </c>
+      <c r="N18">
+        <v>25.337258</v>
+      </c>
+      <c r="O18">
+        <v>0.9155546809347732</v>
+      </c>
+      <c r="P18">
+        <v>0.9155546809347734</v>
+      </c>
+      <c r="Q18">
+        <v>53.89964208105312</v>
+      </c>
+      <c r="R18">
+        <v>485.096778729478</v>
+      </c>
+      <c r="S18">
+        <v>0.2552234253785187</v>
+      </c>
+      <c r="T18">
+        <v>0.2552234253785187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="H19">
+        <v>19.145591</v>
+      </c>
+      <c r="I19">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="J19">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.04220933333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.126628</v>
+      </c>
+      <c r="O19">
+        <v>0.004575667111942754</v>
+      </c>
+      <c r="P19">
+        <v>0.004575667111942755</v>
+      </c>
+      <c r="Q19">
+        <v>0.2693742107942222</v>
+      </c>
+      <c r="R19">
+        <v>2.424367897148</v>
+      </c>
+      <c r="S19">
+        <v>0.001275529968903149</v>
+      </c>
+      <c r="T19">
+        <v>0.001275529968903149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="H20">
+        <v>19.145591</v>
+      </c>
+      <c r="I20">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="J20">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.006559666666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.019679</v>
+      </c>
+      <c r="O20">
+        <v>0.0007110951218997493</v>
+      </c>
+      <c r="P20">
+        <v>0.0007110951218997495</v>
+      </c>
+      <c r="Q20">
+        <v>0.04186289836544444</v>
+      </c>
+      <c r="R20">
+        <v>0.376766085289</v>
+      </c>
+      <c r="S20">
+        <v>0.0001982275188587442</v>
+      </c>
+      <c r="T20">
+        <v>0.0001982275188587442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="H21">
+        <v>19.145591</v>
+      </c>
+      <c r="I21">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="J21">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5003796666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.501139</v>
+      </c>
+      <c r="O21">
+        <v>0.05424323493030479</v>
+      </c>
+      <c r="P21">
+        <v>0.0542432349303048</v>
+      </c>
+      <c r="Q21">
+        <v>3.193354814238778</v>
+      </c>
+      <c r="R21">
+        <v>28.740193328149</v>
+      </c>
+      <c r="S21">
+        <v>0.01512104575598844</v>
+      </c>
+      <c r="T21">
+        <v>0.01512104575598844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H22">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J22">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2298373333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.689512</v>
+      </c>
+      <c r="O22">
+        <v>0.02491532190107932</v>
+      </c>
+      <c r="P22">
+        <v>0.02491532190107933</v>
+      </c>
+      <c r="Q22">
+        <v>0.3711856078595555</v>
+      </c>
+      <c r="R22">
+        <v>3.340670470736</v>
+      </c>
+      <c r="S22">
+        <v>0.001757623216619184</v>
+      </c>
+      <c r="T22">
+        <v>0.001757623216619185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H23">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J23">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.445752666666667</v>
+      </c>
+      <c r="N23">
+        <v>25.337258</v>
+      </c>
+      <c r="O23">
+        <v>0.9155546809347732</v>
+      </c>
+      <c r="P23">
+        <v>0.9155546809347734</v>
+      </c>
+      <c r="Q23">
+        <v>13.63982862114711</v>
+      </c>
+      <c r="R23">
+        <v>122.758457590324</v>
+      </c>
+      <c r="S23">
+        <v>0.06458676992752871</v>
+      </c>
+      <c r="T23">
+        <v>0.06458676992752872</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H24">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J24">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.04220933333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.126628</v>
+      </c>
+      <c r="O24">
+        <v>0.004575667111942754</v>
+      </c>
+      <c r="P24">
+        <v>0.004575667111942755</v>
+      </c>
+      <c r="Q24">
+        <v>0.0681677637982222</v>
+      </c>
+      <c r="R24">
+        <v>0.6135098741839998</v>
+      </c>
+      <c r="S24">
+        <v>0.0003227852635981014</v>
+      </c>
+      <c r="T24">
+        <v>0.0003227852635981014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H25">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J25">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.006559666666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.019679</v>
+      </c>
+      <c r="O25">
+        <v>0.0007110951218997493</v>
+      </c>
+      <c r="P25">
+        <v>0.0007110951218997495</v>
+      </c>
+      <c r="Q25">
+        <v>0.01059381356244444</v>
+      </c>
+      <c r="R25">
+        <v>0.09534432206199998</v>
+      </c>
+      <c r="S25">
+        <v>5.016340147792777E-05</v>
+      </c>
+      <c r="T25">
+        <v>5.016340147792778E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H26">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J26">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5003796666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.501139</v>
+      </c>
+      <c r="O26">
+        <v>0.05424323493030479</v>
+      </c>
+      <c r="P26">
+        <v>0.0542432349303048</v>
+      </c>
+      <c r="Q26">
+        <v>0.8081094922157777</v>
+      </c>
+      <c r="R26">
+        <v>7.272985429941999</v>
+      </c>
+      <c r="S26">
+        <v>0.00382652768591773</v>
+      </c>
+      <c r="T26">
+        <v>0.003826527685917731</v>
       </c>
     </row>
   </sheetData>
